--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Col3a1-Mag.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Col3a1-Mag.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,60 +531,60 @@
         <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>46.4470523289221</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H2">
-        <v>46.4470523289221</v>
+        <v>225.296526</v>
       </c>
       <c r="I2">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J2">
-        <v>0.01518666105308812</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.247810795414966</v>
+        <v>0.061306</v>
       </c>
       <c r="N2">
-        <v>0.247810795414966</v>
+        <v>0.183918</v>
       </c>
       <c r="O2">
-        <v>1</v>
+        <v>0.1297580344745843</v>
       </c>
       <c r="P2">
-        <v>1</v>
+        <v>0.1297580344745843</v>
       </c>
       <c r="Q2">
-        <v>11.51008098231073</v>
+        <v>4.604009607651999</v>
       </c>
       <c r="R2">
-        <v>11.51008098231073</v>
+        <v>41.43608646886799</v>
       </c>
       <c r="S2">
-        <v>0.01518666105308812</v>
+        <v>0.003153647979342588</v>
       </c>
       <c r="T2">
-        <v>0.01518666105308812</v>
+        <v>0.003153647979342588</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>25</v>
@@ -596,57 +596,57 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2965.27213265818</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H3">
-        <v>2965.27213265818</v>
+        <v>225.296526</v>
       </c>
       <c r="I3">
-        <v>0.969546624615535</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J3">
-        <v>0.969546624615535</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.247810795414966</v>
+        <v>0.2837853333333334</v>
       </c>
       <c r="N3">
-        <v>0.247810795414966</v>
+        <v>0.8513560000000001</v>
       </c>
       <c r="O3">
-        <v>1</v>
+        <v>0.6006496438529355</v>
       </c>
       <c r="P3">
-        <v>1</v>
+        <v>0.6006496438529355</v>
       </c>
       <c r="Q3">
-        <v>734.8264458158562</v>
+        <v>21.31194990991733</v>
       </c>
       <c r="R3">
-        <v>734.8264458158562</v>
+        <v>191.807549189256</v>
       </c>
       <c r="S3">
-        <v>0.969546624615535</v>
+        <v>0.014598229260329</v>
       </c>
       <c r="T3">
-        <v>0.969546624615535</v>
+        <v>0.014598229260329</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>25</v>
@@ -655,60 +655,60 @@
         <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.215784338536759</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H4">
-        <v>0.215784338536759</v>
+        <v>225.296526</v>
       </c>
       <c r="I4">
-        <v>7.055439356443292E-05</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J4">
-        <v>7.055439356443292E-05</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.247810795414966</v>
+        <v>0.1008886666666667</v>
       </c>
       <c r="N4">
-        <v>0.247810795414966</v>
+        <v>0.302666</v>
       </c>
       <c r="O4">
-        <v>1</v>
+        <v>0.2135372571596283</v>
       </c>
       <c r="P4">
-        <v>1</v>
+        <v>0.2135372571596283</v>
       </c>
       <c r="Q4">
-        <v>0.05347368857088654</v>
+        <v>7.576622037590666</v>
       </c>
       <c r="R4">
-        <v>0.05347368857088654</v>
+        <v>68.18959833831599</v>
       </c>
       <c r="S4">
-        <v>7.055439356443292E-05</v>
+        <v>0.005189823830814296</v>
       </c>
       <c r="T4">
-        <v>7.055439356443292E-05</v>
+        <v>0.005189823830814295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>25</v>
@@ -717,117 +717,1047 @@
         <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.274231462591379</v>
+        <v>75.09884199999999</v>
       </c>
       <c r="H5">
-        <v>0.274231462591379</v>
+        <v>225.296526</v>
       </c>
       <c r="I5">
-        <v>8.966468405734754E-05</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="J5">
-        <v>8.966468405734754E-05</v>
+        <v>0.02430406712087099</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.247810795414966</v>
+        <v>0.026484</v>
       </c>
       <c r="N5">
-        <v>0.247810795414966</v>
+        <v>0.07945199999999999</v>
       </c>
       <c r="O5">
-        <v>1</v>
+        <v>0.05605506451285176</v>
       </c>
       <c r="P5">
-        <v>1</v>
+        <v>0.05605506451285176</v>
       </c>
       <c r="Q5">
-        <v>0.06795751687257912</v>
+        <v>1.988917731528</v>
       </c>
       <c r="R5">
-        <v>0.06795751687257912</v>
+        <v>17.900259583752</v>
       </c>
       <c r="S5">
-        <v>8.966468405734754E-05</v>
+        <v>0.001362366050385103</v>
       </c>
       <c r="T5">
-        <v>8.966468405734754E-05</v>
+        <v>0.001362366050385102</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>2966.075764666667</v>
+      </c>
+      <c r="H6">
+        <v>8898.227294</v>
+      </c>
+      <c r="I6">
+        <v>0.9599043414017944</v>
+      </c>
+      <c r="J6">
+        <v>0.9599043414017943</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.061306</v>
+      </c>
+      <c r="N6">
+        <v>0.183918</v>
+      </c>
+      <c r="O6">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P6">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q6">
+        <v>181.8382408286546</v>
+      </c>
+      <c r="R6">
+        <v>1636.544167457892</v>
+      </c>
+      <c r="S6">
+        <v>0.1245553006239172</v>
+      </c>
+      <c r="T6">
+        <v>0.1245553006239171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>2966.075764666667</v>
+      </c>
+      <c r="H7">
+        <v>8898.227294</v>
+      </c>
+      <c r="I7">
+        <v>0.9599043414017944</v>
+      </c>
+      <c r="J7">
+        <v>0.9599043414017943</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N7">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O7">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P7">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q7">
+        <v>841.7287995678518</v>
+      </c>
+      <c r="R7">
+        <v>7575.559196110666</v>
+      </c>
+      <c r="S7">
+        <v>0.5765662007958744</v>
+      </c>
+      <c r="T7">
+        <v>0.5765662007958744</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2966.075764666667</v>
+      </c>
+      <c r="H8">
+        <v>8898.227294</v>
+      </c>
+      <c r="I8">
+        <v>0.9599043414017944</v>
+      </c>
+      <c r="J8">
+        <v>0.9599043414017943</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.302666</v>
+      </c>
+      <c r="O8">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P8">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q8">
+        <v>299.2434291295338</v>
+      </c>
+      <c r="R8">
+        <v>2693.190862165804</v>
+      </c>
+      <c r="S8">
+        <v>0.2049753401985586</v>
+      </c>
+      <c r="T8">
+        <v>0.2049753401985586</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2966.075764666667</v>
+      </c>
+      <c r="H9">
+        <v>8898.227294</v>
+      </c>
+      <c r="I9">
+        <v>0.9599043414017944</v>
+      </c>
+      <c r="J9">
+        <v>0.9599043414017943</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.026484</v>
+      </c>
+      <c r="N9">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P9">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q9">
+        <v>78.553550551432</v>
+      </c>
+      <c r="R9">
+        <v>706.9819549628879</v>
+      </c>
+      <c r="S9">
+        <v>0.05380749978344406</v>
+      </c>
+      <c r="T9">
+        <v>0.05380749978344406</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>46.2018723605547</v>
-      </c>
-      <c r="H6">
-        <v>46.2018723605547</v>
-      </c>
-      <c r="I6">
-        <v>0.01510649525375528</v>
-      </c>
-      <c r="J6">
-        <v>0.01510649525375528</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>1</v>
-      </c>
-      <c r="M6">
-        <v>0.247810795414966</v>
-      </c>
-      <c r="N6">
-        <v>0.247810795414966</v>
-      </c>
-      <c r="O6">
-        <v>1</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>11.44932273932979</v>
-      </c>
-      <c r="R6">
-        <v>11.44932273932979</v>
-      </c>
-      <c r="S6">
-        <v>0.01510649525375528</v>
-      </c>
-      <c r="T6">
-        <v>0.01510649525375528</v>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.2249183333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.674755</v>
+      </c>
+      <c r="I10">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="J10">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.061306</v>
+      </c>
+      <c r="N10">
+        <v>0.183918</v>
+      </c>
+      <c r="O10">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P10">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q10">
+        <v>0.01378884334333333</v>
+      </c>
+      <c r="R10">
+        <v>0.12409959009</v>
+      </c>
+      <c r="S10">
+        <v>9.445062381038703E-06</v>
+      </c>
+      <c r="T10">
+        <v>9.445062381038703E-06</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.2249183333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.674755</v>
+      </c>
+      <c r="I11">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="J11">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N11">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O11">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P11">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q11">
+        <v>0.06382852419777779</v>
+      </c>
+      <c r="R11">
+        <v>0.5744567177800001</v>
+      </c>
+      <c r="S11">
+        <v>4.372117209012488E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.372117209012488E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2249183333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.674755</v>
+      </c>
+      <c r="I12">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="J12">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M12">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.302666</v>
+      </c>
+      <c r="O12">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P12">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q12">
+        <v>0.02269171075888889</v>
+      </c>
+      <c r="R12">
+        <v>0.20422539683</v>
+      </c>
+      <c r="S12">
+        <v>1.554333589218815E-05</v>
+      </c>
+      <c r="T12">
+        <v>1.554333589218815E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2249183333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.674755</v>
+      </c>
+      <c r="I13">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="J13">
+        <v>7.278980773162612E-05</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M13">
+        <v>0.026484</v>
+      </c>
+      <c r="N13">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O13">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P13">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q13">
+        <v>0.00595673714</v>
+      </c>
+      <c r="R13">
+        <v>0.05361063426</v>
+      </c>
+      <c r="S13">
+        <v>4.080237368274377E-06</v>
+      </c>
+      <c r="T13">
+        <v>4.080237368274378E-06</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.4181903333333334</v>
+      </c>
+      <c r="H14">
+        <v>1.254571</v>
+      </c>
+      <c r="I14">
+        <v>0.0001353379847139687</v>
+      </c>
+      <c r="J14">
+        <v>0.0001353379847139686</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.061306</v>
+      </c>
+      <c r="N14">
+        <v>0.183918</v>
+      </c>
+      <c r="O14">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P14">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q14">
+        <v>0.02563757657533334</v>
+      </c>
+      <c r="R14">
+        <v>0.230738189178</v>
+      </c>
+      <c r="S14">
+        <v>1.756119088623591E-05</v>
+      </c>
+      <c r="T14">
+        <v>1.756119088623591E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.4181903333333334</v>
+      </c>
+      <c r="H15">
+        <v>1.254571</v>
+      </c>
+      <c r="I15">
+        <v>0.0001353379847139687</v>
+      </c>
+      <c r="J15">
+        <v>0.0001353379847139686</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N15">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P15">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q15">
+        <v>0.1186762831417778</v>
+      </c>
+      <c r="R15">
+        <v>1.068086548276</v>
+      </c>
+      <c r="S15">
+        <v>8.129071231821932E-05</v>
+      </c>
+      <c r="T15">
+        <v>8.129071231821929E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.4181903333333334</v>
+      </c>
+      <c r="H16">
+        <v>1.254571</v>
+      </c>
+      <c r="I16">
+        <v>0.0001353379847139687</v>
+      </c>
+      <c r="J16">
+        <v>0.0001353379847139686</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.302666</v>
+      </c>
+      <c r="O16">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P16">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q16">
+        <v>0.0421906651428889</v>
+      </c>
+      <c r="R16">
+        <v>0.379715986286</v>
+      </c>
+      <c r="S16">
+        <v>2.889970204533258E-05</v>
+      </c>
+      <c r="T16">
+        <v>2.889970204533257E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.4181903333333334</v>
+      </c>
+      <c r="H17">
+        <v>1.254571</v>
+      </c>
+      <c r="I17">
+        <v>0.0001353379847139687</v>
+      </c>
+      <c r="J17">
+        <v>0.0001353379847139686</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.026484</v>
+      </c>
+      <c r="N17">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O17">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P17">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q17">
+        <v>0.011075352788</v>
+      </c>
+      <c r="R17">
+        <v>0.099678175092</v>
+      </c>
+      <c r="S17">
+        <v>7.586379464180858E-06</v>
+      </c>
+      <c r="T17">
+        <v>7.586379464180858E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H18">
+        <v>144.457313</v>
+      </c>
+      <c r="I18">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J18">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.061306</v>
+      </c>
+      <c r="N18">
+        <v>0.183918</v>
+      </c>
+      <c r="O18">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="P18">
+        <v>0.1297580344745843</v>
+      </c>
+      <c r="Q18">
+        <v>2.952033343592666</v>
+      </c>
+      <c r="R18">
+        <v>26.568300092334</v>
+      </c>
+      <c r="S18">
+        <v>0.00202207961805727</v>
+      </c>
+      <c r="T18">
+        <v>0.00202207961805727</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H19">
+        <v>144.457313</v>
+      </c>
+      <c r="I19">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J19">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.2837853333333334</v>
+      </c>
+      <c r="N19">
+        <v>0.8513560000000001</v>
+      </c>
+      <c r="O19">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="P19">
+        <v>0.6006496438529355</v>
+      </c>
+      <c r="Q19">
+        <v>13.66495557404756</v>
+      </c>
+      <c r="R19">
+        <v>122.984600166428</v>
+      </c>
+      <c r="S19">
+        <v>0.009360201912323783</v>
+      </c>
+      <c r="T19">
+        <v>0.009360201912323783</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H20">
+        <v>144.457313</v>
+      </c>
+      <c r="I20">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J20">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M20">
+        <v>0.1008886666666667</v>
+      </c>
+      <c r="N20">
+        <v>0.302666</v>
+      </c>
+      <c r="O20">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="P20">
+        <v>0.2135372571596283</v>
+      </c>
+      <c r="Q20">
+        <v>4.858035232939778</v>
+      </c>
+      <c r="R20">
+        <v>43.722317096458</v>
+      </c>
+      <c r="S20">
+        <v>0.00332765009231789</v>
+      </c>
+      <c r="T20">
+        <v>0.00332765009231789</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>48.15243766666666</v>
+      </c>
+      <c r="H21">
+        <v>144.457313</v>
+      </c>
+      <c r="I21">
+        <v>0.01558346368488909</v>
+      </c>
+      <c r="J21">
+        <v>0.01558346368488908</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M21">
+        <v>0.026484</v>
+      </c>
+      <c r="N21">
+        <v>0.07945199999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="P21">
+        <v>0.05605506451285176</v>
+      </c>
+      <c r="Q21">
+        <v>1.275269159164</v>
+      </c>
+      <c r="R21">
+        <v>11.477422432476</v>
+      </c>
+      <c r="S21">
+        <v>0.0008735320621901402</v>
+      </c>
+      <c r="T21">
+        <v>0.0008735320621901402</v>
       </c>
     </row>
   </sheetData>
